--- a/fuentes/contenidos/grado11/guion01/SolicitudGraficaMA_11_01_CO_REC140.xlsx
+++ b/fuentes/contenidos/grado11/guion01/SolicitudGraficaMA_11_01_CO_REC140.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pahola\Desktop\Aula- Planeta\MA_11_01-CO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lzambrano\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="hX79YNGfHMUCcosWMoH0GQuhNo2gkebFrfW3do2TOcvwqaujU9m0uwOL5UkRtWEspAy/ISD2JB8+jf057W9mVA==" workbookSaltValue="uRz/CDpmZ5ecKheoN1C0Jw==" workbookSpinCount="100000" lockStructure="1"/>
@@ -21,12 +21,12 @@
     <definedName name="Formato">'Solicitud gráfica'!$L$2:$L$3</definedName>
     <definedName name="Ubicación">'Solicitud gráfica'!$M$2:$M$6</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="203">
   <si>
     <t>Fecha:</t>
   </si>
@@ -1777,7 +1777,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="16" dropStyle="combo" dx="33" fmlaLink="$K$44" fmlaRange="$K$4:$K$43" noThreeD="1" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="16" dropStyle="combo" dx="33" fmlaLink="$K$44" fmlaRange="$K$4:$K$43" noThreeD="1" sel="1" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2697,9 +2697,9 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J12" sqref="J12"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="140" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -3243,7 +3243,7 @@
         <v>F6B</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="11" customFormat="1" ht="158.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" s="11" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3253,12 +3253,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D16" s="63" t="s">
-        <v>187</v>
-      </c>
-      <c r="E16" s="63" t="s">
-        <v>155</v>
-      </c>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
       <c r="F16" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3282,7 +3278,7 @@
         <v>F7</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="11" customFormat="1" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3292,12 +3288,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D17" s="63" t="s">
-        <v>187</v>
-      </c>
-      <c r="E17" s="63" t="s">
-        <v>155</v>
-      </c>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
       <c r="F17" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3321,7 +3313,7 @@
         <v>F7B</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="11" customFormat="1" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3331,12 +3323,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D18" s="63" t="s">
-        <v>187</v>
-      </c>
-      <c r="E18" s="63" t="s">
-        <v>155</v>
-      </c>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
       <c r="F18" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
